--- a/Reference_Info/Texture replacements.xlsx
+++ b/Reference_Info/Texture replacements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevenconnell\OneDrive - CTS Group Pty Ltd\Documents\GitHub\BD64maps_v2.666\Reference_Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC3E3EB-2563-42AC-A3AB-94EFC5B98B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9588EEFE-37EB-4317-8891-5F0B19E8FCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="1635" windowWidth="20040" windowHeight="11295" xr2:uid="{A567E191-AF02-4B5D-A98D-30E219FAA09A}"/>
+    <workbookView xWindow="5310" yWindow="2520" windowWidth="20040" windowHeight="11295" xr2:uid="{A567E191-AF02-4B5D-A98D-30E219FAA09A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -830,7 +830,7 @@
   <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D61" sqref="A61:D61"/>
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Reference_Info/Texture replacements.xlsx
+++ b/Reference_Info/Texture replacements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevenconnell\OneDrive - CTS Group Pty Ltd\Documents\GitHub\BD64maps_v2.666\Reference_Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9588EEFE-37EB-4317-8891-5F0B19E8FCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A36CD00-29A6-49CA-8B96-658E926258B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="2520" windowWidth="20040" windowHeight="11295" xr2:uid="{A567E191-AF02-4B5D-A98D-30E219FAA09A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A567E191-AF02-4B5D-A98D-30E219FAA09A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="165">
   <si>
     <t>NEW50</t>
   </si>
@@ -466,6 +466,60 @@
   </si>
   <si>
     <t>NEW73</t>
+  </si>
+  <si>
+    <t>MIDSPACE</t>
+  </si>
+  <si>
+    <t>TILEE962</t>
+  </si>
+  <si>
+    <t>PATCHES TEXTURES CLEANUP</t>
+  </si>
+  <si>
+    <t>TILE4B61</t>
+  </si>
+  <si>
+    <t>TILE52CA</t>
+  </si>
+  <si>
+    <t>TILE52C0</t>
+  </si>
+  <si>
+    <t>TILE53EA</t>
+  </si>
+  <si>
+    <t>TILE53ED</t>
+  </si>
+  <si>
+    <t>TILE9F36</t>
+  </si>
+  <si>
+    <t>TILE9F35</t>
+  </si>
+  <si>
+    <t>TILEABC3</t>
+  </si>
+  <si>
+    <t>TILEABC2</t>
+  </si>
+  <si>
+    <t>TILEEE5A</t>
+  </si>
+  <si>
+    <t>TILE955D</t>
+  </si>
+  <si>
+    <t>TILEEFDC</t>
+  </si>
+  <si>
+    <t>TILEA40E</t>
+  </si>
+  <si>
+    <t>TILEF505</t>
+  </si>
+  <si>
+    <t>TILEF504</t>
   </si>
 </sst>
 </file>
@@ -827,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764EE261-F28C-4A12-9150-B74128514BA4}">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,6 +1393,14 @@
         <v>85</v>
       </c>
     </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" t="s">
+        <v>148</v>
+      </c>
+    </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>6</v>
@@ -1608,6 +1670,75 @@
       </c>
       <c r="C109" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>150</v>
+      </c>
+      <c r="C114" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>151</v>
+      </c>
+      <c r="C115" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>153</v>
+      </c>
+      <c r="C116" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>155</v>
+      </c>
+      <c r="C117" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>157</v>
+      </c>
+      <c r="C118" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>159</v>
+      </c>
+      <c r="C119" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>161</v>
+      </c>
+      <c r="C120" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>163</v>
+      </c>
+      <c r="C121" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1615,5 +1746,6 @@
     <sortCondition ref="A3:A57"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>